--- a/dataset-2/2-with_data_augmentation/results/gan.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/gan.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6363636363636364</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="D2">
-        <v>0.7777777777777778</v>
+        <v>0.4378698224852072</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C3">
-        <v>0.7142857142857143</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D3">
-        <v>0.8333333333333333</v>
+        <v>0.4477611940298508</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.7142857142857143</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C4">
-        <v>0.7142857142857143</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D4">
-        <v>0.7142857142857143</v>
+        <v>0.3783783783783783</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.875</v>
+        <v>0.3106796116504854</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D5">
-        <v>0.9333333333333333</v>
+        <v>0.3975155279503105</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.7142857142857143</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C6">
-        <v>0.7142857142857143</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D6">
-        <v>0.7142857142857143</v>
+        <v>0.4102564102564102</v>
       </c>
     </row>
   </sheetData>
